--- a/biology/Médecine/Papyrus_Berlin_3038/Papyrus_Berlin_3038.xlsx
+++ b/biology/Médecine/Papyrus_Berlin_3038/Papyrus_Berlin_3038.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Papyrus Berlin 3038, aussi connu comme le « grand papyrus de Berlin » ou « Brugsch Papyrus »[1] est un important papyrus médical égyptien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Papyrus Berlin 3038, aussi connu comme le « grand papyrus de Berlin » ou « Brugsch Papyrus » est un important papyrus médical égyptien.
 Il est découvert par Giuseppe Passalacqua à Saqqarah en Égypte. Frédéric-Guillaume IV de Prusse en fait l'acquisition en 1827 pour le Ägyptisches Museum de Berlin où il est encore conservé. 
 Le papyrus a été étudié par Heinrich Karl Brugsch mais traduit et publié par Walter Wreszinski en 1909.
-Le papyrus contient 24 pages. Le style d'écriture est celui de la XIXe dynastie et il est daté entre 1350 et 1200 av. J.-C. Il est assez conforme au Papyrus Ebers. Une partie du contenu porte sur la contraception et les tests de fertilité[2].
+Le papyrus contient 24 pages. Le style d'écriture est celui de la XIXe dynastie et il est daté entre 1350 et 1200 av. J.-C. Il est assez conforme au Papyrus Ebers. Une partie du contenu porte sur la contraception et les tests de fertilité.
 </t>
         </is>
       </c>
